--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,27 +627,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 70420-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 70420-2018.xlsx", "A 70420-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 70420-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 70420-2018.png", "A 70420-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 70420-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 70420-2018.docx", "A 70420-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 70420-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 70420-2018.docx", "A 70420-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 70420-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 70420-2018.docx", "A 70420-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 70420-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 70420-2018.docx", "A 70420-2018")</f>
         <v/>
       </c>
     </row>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,27 +714,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 41818-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 41818-2018.xlsx", "A 41818-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 41818-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 41818-2018.png", "A 41818-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 41818-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 41818-2018.docx", "A 41818-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 41818-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 41818-2018.docx", "A 41818-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 41818-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 41818-2018.docx", "A 41818-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 41818-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 41818-2018.docx", "A 41818-2018")</f>
         <v/>
       </c>
     </row>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 20145-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 20145-2021.xlsx", "A 20145-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 20145-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 20145-2021.png", "A 20145-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 20145-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 20145-2021.docx", "A 20145-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 20145-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 20145-2021.docx", "A 20145-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 20145-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 20145-2021.docx", "A 20145-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 20145-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 20145-2021.docx", "A 20145-2021")</f>
         <v/>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,27 +893,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 29908-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 29908-2023.xlsx", "A 29908-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 29908-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 29908-2023.png", "A 29908-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 29908-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 29908-2023.docx", "A 29908-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 29908-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 29908-2023.docx", "A 29908-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 29908-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 29908-2023.docx", "A 29908-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 29908-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 29908-2023.docx", "A 29908-2023")</f>
         <v/>
       </c>
     </row>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,27 +984,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 12217-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 12217-2019.xlsx", "A 12217-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 12217-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 12217-2019.png", "A 12217-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 12217-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 12217-2019.docx", "A 12217-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 12217-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 12217-2019.docx", "A 12217-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 12217-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 12217-2019.docx", "A 12217-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 12217-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 12217-2019.docx", "A 12217-2019")</f>
         <v/>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1075,27 +1075,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 31881-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 31881-2019.xlsx", "A 31881-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 31881-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 31881-2019.png", "A 31881-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 31881-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 31881-2019.docx", "A 31881-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 31881-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 31881-2019.docx", "A 31881-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 31881-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 31881-2019.docx", "A 31881-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 31881-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 31881-2019.docx", "A 31881-2019")</f>
         <v/>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1161,27 +1161,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 61052-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 61052-2019.xlsx", "A 61052-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 61052-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 61052-2019.png", "A 61052-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 61052-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 61052-2019.docx", "A 61052-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 61052-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 61052-2019.docx", "A 61052-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 61052-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 61052-2019.docx", "A 61052-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 61052-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 61052-2019.docx", "A 61052-2019")</f>
         <v/>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,27 +1247,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 14675-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 14675-2020.xlsx", "A 14675-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 14675-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 14675-2020.png", "A 14675-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 14675-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 14675-2020.docx", "A 14675-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 14675-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 14675-2020.docx", "A 14675-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 14675-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 14675-2020.docx", "A 14675-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 14675-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 14675-2020.docx", "A 14675-2020")</f>
         <v/>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,27 +1333,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 61845-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 61845-2020.xlsx", "A 61845-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 61845-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 61845-2020.png", "A 61845-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 61845-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 61845-2020.docx", "A 61845-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 61845-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 61845-2020.docx", "A 61845-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 61845-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 61845-2020.docx", "A 61845-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 61845-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 61845-2020.docx", "A 61845-2020")</f>
         <v/>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1424,31 +1424,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 55712-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 55712-2021.xlsx", "A 55712-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 55712-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 55712-2021.png", "A 55712-2021")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/knärot/A 55712-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/knärot/A 55712-2021.png", "A 55712-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 55712-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 55712-2021.docx", "A 55712-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 55712-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 55712-2021.docx", "A 55712-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 55712-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 55712-2021.docx", "A 55712-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 55712-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 55712-2021.docx", "A 55712-2021")</f>
         <v/>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,27 +1518,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 36698-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 36698-2018.xlsx", "A 36698-2018")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 36698-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 36698-2018.png", "A 36698-2018")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 36698-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 36698-2018.docx", "A 36698-2018")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 36698-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 36698-2018.docx", "A 36698-2018")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 36698-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 36698-2018.docx", "A 36698-2018")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 36698-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 36698-2018.docx", "A 36698-2018")</f>
         <v/>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,27 +1603,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 40206-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 40206-2018.xlsx", "A 40206-2018")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 40206-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 40206-2018.png", "A 40206-2018")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 40206-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 40206-2018.docx", "A 40206-2018")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 40206-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 40206-2018.docx", "A 40206-2018")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 40206-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 40206-2018.docx", "A 40206-2018")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 40206-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 40206-2018.docx", "A 40206-2018")</f>
         <v/>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1688,27 +1688,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 47017-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 47017-2018.xlsx", "A 47017-2018")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 47017-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 47017-2018.png", "A 47017-2018")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 47017-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 47017-2018.docx", "A 47017-2018")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 47017-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 47017-2018.docx", "A 47017-2018")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 47017-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 47017-2018.docx", "A 47017-2018")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 47017-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 47017-2018.docx", "A 47017-2018")</f>
         <v/>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1773,31 +1773,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 67037-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 67037-2019.xlsx", "A 67037-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 67037-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 67037-2019.png", "A 67037-2019")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/knärot/A 67037-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/knärot/A 67037-2019.png", "A 67037-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 67037-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 67037-2019.docx", "A 67037-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 67037-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 67037-2019.docx", "A 67037-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 67037-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 67037-2019.docx", "A 67037-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 67037-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 67037-2019.docx", "A 67037-2019")</f>
         <v/>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,27 +1862,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 13411-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 13411-2020.xlsx", "A 13411-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 13411-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 13411-2020.png", "A 13411-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 13411-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 13411-2020.docx", "A 13411-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 13411-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 13411-2020.docx", "A 13411-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 13411-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 13411-2020.docx", "A 13411-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 13411-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 13411-2020.docx", "A 13411-2020")</f>
         <v/>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1952,27 +1952,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 64414-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 64414-2020.xlsx", "A 64414-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 64414-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 64414-2020.png", "A 64414-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 64414-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 64414-2020.docx", "A 64414-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 64414-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 64414-2020.docx", "A 64414-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 64414-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 64414-2020.docx", "A 64414-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 64414-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 64414-2020.docx", "A 64414-2020")</f>
         <v/>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2037,27 +2037,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 44202-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/artfynd/A 44202-2021.xlsx", "A 44202-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 44202-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/kartor/A 44202-2021.png", "A 44202-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 44202-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomål/A 44202-2021.docx", "A 44202-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 44202-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/klagomålsmail/A 44202-2021.docx", "A 44202-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 44202-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsyn/A 44202-2021.docx", "A 44202-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 44202-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORAS/tillsynsmail/A 44202-2021.docx", "A 44202-2021")</f>
         <v/>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt BORÅS.xlsx
+++ b/Översikt BORÅS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y499"/>
+  <dimension ref="A1:Y500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43451</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>44314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45099</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43522</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43641</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>43782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>43909</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44476</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43329</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43369</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44168</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>44434</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>43329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>43329</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>43329</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43367</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43367</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43369</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43396</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43409</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43410</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43423</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43453</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43469</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43489</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43493</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43493</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43493</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43493</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43497</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43497</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43497</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43508</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43515</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43524</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43532</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43537</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43539</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>43543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43546</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43559</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43559</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43560</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43560</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43573</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43581</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43585</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43598</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43598</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43626</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43640</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43641</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43646</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43654</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43662</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43676</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43678</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43682</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>43699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43706</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43710</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43717</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43723</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43727</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43727</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43727</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43731</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43740</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43748</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43752</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43756</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43758</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43767</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43767</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43773</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43784</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43787</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43788</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43788</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43791</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43795</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43797</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43801</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43808</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43808</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43808</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43808</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43808</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43808</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43839</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43842</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43849</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43851</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43854</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43858</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43871</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43871</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43871</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43872</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43878</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43882</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43886</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43898</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43900</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43918</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43921</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43922</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43942</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43944</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43970</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43979</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43984</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43997</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43997</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44005</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44012</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44033</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44042</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>44055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44057</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44057</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44057</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44060</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44060</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44060</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44060</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44060</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44060</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44060</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44060</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44061</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44076</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44077</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44084</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44085</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>44088</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44095</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44103</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44103</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44105</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44105</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44105</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44105</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44137</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44137</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44137</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44138</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44140</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44152</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44153</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44153</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44159</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44160</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44166</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44166</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44167</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44167</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44167</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44168</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44179</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44181</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44182</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44183</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44183</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44186</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44188</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44188</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>44193</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>44194</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>44203</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44204</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>44207</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>44208</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44210</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44215</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44224</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44232</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44234</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44235</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44236</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44239</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44245</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44246</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44250</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44262</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44266</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44274</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44274</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44286</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44298</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44313</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44319</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44319</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44323</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44325</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44342</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44350</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44351</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44379</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44385</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44389</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44393</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44438</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44448</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44448</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44463</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44463</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44467</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44467</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44468</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44468</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44475</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44488</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44488</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44488</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44491</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44501</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44504</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44510</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44512</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44515</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44538</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21280,7 +21280,7 @@
         <v>44544</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44550</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21451,7 +21451,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44572</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44586</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44586</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44589</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>44592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44594</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44606</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44609</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44624</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44624</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44630</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44630</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44639</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44641</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44642</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44644</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44648</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44652</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44656</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44678</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44683</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44691</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>44721</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>44726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44728</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44734</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44740</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44740</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44746</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44750</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44753</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44771</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44804</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>44830</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44837</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>44839</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>44845</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44848</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44854</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44855</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44859</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44866</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44873</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44873</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44879</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44880</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44882</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44888</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44888</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>44897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>44897</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44904</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44916</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44916</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44916</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44938</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44939</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44949</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44949</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44949</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>44958</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44958</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>44958</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44958</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>44958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44959</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44964</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44964</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44964</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44980</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44988</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44992</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44993</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>44995</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45000</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45007</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45033</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45034</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45048</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45054</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45054</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45054</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>45056</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45058</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>45062</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45062</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>45063</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45093</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45099</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45099</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45099</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45104</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45107</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45119</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45119</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45119</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45119</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>45119</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45119</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45120</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45120</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45120</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45120</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45120</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45120</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45120</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45120</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45126</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45126</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45142</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
       </c>
       <c r="R498" s="2" t="inlineStr"/>
     </row>
-    <row r="499">
+    <row r="499" ht="15" customHeight="1">
       <c r="A499" t="inlineStr">
         <is>
           <t>A 39857-2023</t>
@@ -29796,7 +29796,7 @@
         <v>45168</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29842,6 +29842,63 @@
         <v>0</v>
       </c>
       <c r="R499" s="2" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>A 48150-2023</t>
+        </is>
+      </c>
+      <c r="B500" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C500" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>BORÅS</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0</v>
+      </c>
+      <c r="J500" t="n">
+        <v>0</v>
+      </c>
+      <c r="K500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N500" t="n">
+        <v>0</v>
+      </c>
+      <c r="O500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R500" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
